--- a/3/5/3/Otros 1990 a 2021 - Trimestral.xlsx
+++ b/3/5/3/Otros 1990 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>Serie</t>
   </si>
@@ -398,6 +398,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -755,7 +758,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B127"/>
+  <dimension ref="A1:B128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1777,6 +1780,14 @@
         <v>0.03</v>
       </c>
     </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>128</v>
+      </c>
+      <c r="B128">
+        <v>0.04</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
